--- a/amazon_products.xlsx
+++ b/amazon_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MRP (Original Price)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Selling Price</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Discount Price</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Delivery Date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
@@ -478,15 +483,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>B08N5WRWNW</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Apple-designed M1 chip for a giant leap in CPU, GPU, and machine learning performance
+Get more done with up to 20 hours of battery life, the longest ever in a Mac
+8-core CPU delivers up to 2.8x faster performance to fly through workflows quicker than ever
+Apple-designed M1 chip for a giant leap in CPU, GPU, and machine learning performance
+Get more done with up to 20 hours of battery life, the longest ever in a Mac
+8-core CPU delivers up to 2.8x faster performance to fly through workflows quicker than ever
+8-core GPU with up to 5x faster graphics for graphics-intensive apps and games
+16-core Neural Engine for advanced machine learning
+8GB of unified memory so everything you do is fast and fluid
+Superfast SSD storage launches apps and opens files in an instant
+Active cooling system sustains incredible performance
+33.78cm (13.3-inch) Retina display with 500 nits of brightness for vibrant colors and incredible image detail
+FaceTime HD camera with advanced image signal processor for clearer, sharper video calls</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>₹63,990.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>₹63,990.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/dp/B08N5WRWNW</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>B0CGW18S6Y</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Crucial® X9 2TB Portable SSD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Speedy storage for photos, games, videos and more: Read speeds up to 1,050MB/s
 Space for all your favorites: Perfect for backups. 2TB holds up to 10,000 photos, 30 hours of family video, four AAA game titles, and 100GB of documents, with 200GB to spare
@@ -496,27 +544,24 @@
 Compact design: 65 x 50 mm design with integrated lanyard hole fits in the palm of your hand</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>₹19,999.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹24,100</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>FREE deliverySaturday, 8 March.Details</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dependable storage for your favorite devices, wherever you go — that’s what the Crucial X9 Portable SSD offers. With lots of space for all your favorite photos, videos, games and more, the Crucial X9 gives you speedy file transfers and compatibility with PCs, Macs, tablets, gaming consoles and Android phones, making it the perfect plug-and-play storage solution.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.amazon.in/dp/B0CGW18S6Y</t>
         </is>
